--- a/src/models/baselines/SVM/results/synthetic/position/metrics.xlsx
+++ b/src/models/baselines/SVM/results/synthetic/position/metrics.xlsx
@@ -456,13 +456,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.35</v>
+        <v>0.425</v>
       </c>
       <c r="C2" t="n">
-        <v>0.35</v>
+        <v>0.425</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5</v>
+        <v>0.5778049111382445</v>
       </c>
     </row>
     <row r="3">
@@ -470,13 +470,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.35</v>
+        <v>0.45</v>
       </c>
       <c r="C3" t="n">
-        <v>0.35</v>
+        <v>0.45</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5</v>
+        <v>0.5951363451363453</v>
       </c>
     </row>
     <row r="4">
@@ -484,13 +484,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.35</v>
+        <v>0.475</v>
       </c>
       <c r="C4" t="n">
-        <v>0.35</v>
+        <v>0.475</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5</v>
+        <v>0.5932709266042598</v>
       </c>
     </row>
     <row r="5">
@@ -498,13 +498,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.35</v>
+        <v>0.425</v>
       </c>
       <c r="C5" t="n">
-        <v>0.35</v>
+        <v>0.425</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5</v>
+        <v>0.5578279744946412</v>
       </c>
     </row>
     <row r="6">
@@ -512,13 +512,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.35</v>
+        <v>0.5</v>
       </c>
       <c r="C6" t="n">
-        <v>0.35</v>
+        <v>0.5</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5</v>
+        <v>0.6421109754443087</v>
       </c>
     </row>
     <row r="7">
@@ -526,13 +526,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>0.35</v>
+        <v>0.4</v>
       </c>
       <c r="C7" t="n">
-        <v>0.35</v>
+        <v>0.4000000000000001</v>
       </c>
       <c r="D7" t="n">
-        <v>0.5</v>
+        <v>0.54663546330213</v>
       </c>
     </row>
     <row r="8">
@@ -540,13 +540,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>0.35</v>
+        <v>0.475</v>
       </c>
       <c r="C8" t="n">
-        <v>0.35</v>
+        <v>0.475</v>
       </c>
       <c r="D8" t="n">
-        <v>0.5</v>
+        <v>0.6405168905168906</v>
       </c>
     </row>
     <row r="9">
@@ -554,13 +554,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>0.35</v>
+        <v>0.375</v>
       </c>
       <c r="C9" t="n">
-        <v>0.35</v>
+        <v>0.375</v>
       </c>
       <c r="D9" t="n">
-        <v>0.5</v>
+        <v>0.5508072174738842</v>
       </c>
     </row>
     <row r="10">
@@ -568,13 +568,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>0.35</v>
+        <v>0.475</v>
       </c>
       <c r="C10" t="n">
-        <v>0.35</v>
+        <v>0.475</v>
       </c>
       <c r="D10" t="n">
-        <v>0.5</v>
+        <v>0.6324447157780492</v>
       </c>
     </row>
     <row r="11">
@@ -582,13 +582,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>0.35</v>
+        <v>0.425</v>
       </c>
       <c r="C11" t="n">
-        <v>0.35</v>
+        <v>0.425</v>
       </c>
       <c r="D11" t="n">
-        <v>0.5</v>
+        <v>0.5897096730430064</v>
       </c>
     </row>
   </sheetData>
@@ -634,13 +634,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.35</v>
+        <v>0.4425</v>
       </c>
       <c r="C2" t="n">
-        <v>0.35</v>
+        <v>0.4425</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5</v>
+        <v>0.592626509293176</v>
       </c>
     </row>
     <row r="3">
@@ -650,13 +650,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.03917553091181052</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>0.03917553091181053</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>0.03595917489264243</v>
       </c>
     </row>
   </sheetData>
